--- a/Results/borofloat_simulations/surf-temps_combined.xlsx
+++ b/Results/borofloat_simulations/surf-temps_combined.xlsx
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,6 +66,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -100,9 +108,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15684,16 +15696,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2032000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15980,33 +15992,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
